--- a/2. Purchase Order/English Version/7. High Temp Metals/Amount of Credit.xlsx
+++ b/2. Purchase Order/English Version/7. High Temp Metals/Amount of Credit.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>PO No.</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>AMS 5536N</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +131,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,11 +161,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -202,6 +248,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +564,7 @@
   <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,17 +671,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="17"/>
+      <c r="A5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -668,12 +723,12 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="22">
-        <f>SUM(I3:I8)</f>
-        <v>197.43000000000029</v>
-      </c>
+      <c r="I9" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:I5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
